--- a/2022/Symphony/Others/Capital Mugdho Corporation 27.04.2022.xlsx
+++ b/2022/Symphony/Others/Capital Mugdho Corporation 27.04.2022.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Mugdho Corporation</t>
   </si>
@@ -154,7 +154,10 @@
     <t>All additional =</t>
   </si>
   <si>
-    <t>Date: 02.05.2022</t>
+    <t>09.05.2022 Jamuna Bank Deposit</t>
+  </si>
+  <si>
+    <t>Date: 09.05.2022</t>
   </si>
 </sst>
 </file>
@@ -286,7 +289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -410,11 +413,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -489,6 +518,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C23"/>
+  <dimension ref="B1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -780,7 +823,9 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="42.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -792,7 +837,7 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="33"/>
     </row>
@@ -801,7 +846,7 @@
       <c r="C4" s="35"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="39" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="17">
@@ -838,7 +883,7 @@
       <c r="C9" s="37"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="38" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="7">
@@ -862,91 +907,108 @@
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="23">
-        <f>C10-C11-C12</f>
-        <v>6250000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B15" s="18" t="s">
+      <c r="C14" s="23">
+        <f>C10-C11-C12-C13</f>
+        <v>4050000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C16" s="19">
         <v>7000000</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B16" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="19">
-        <v>0</v>
-      </c>
-    </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="19">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="25">
-        <f>C15+C16</f>
-        <v>7000000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="4" t="s">
+      <c r="C18" s="25">
+        <f>C16-C17</f>
+        <v>6800000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="5">
-        <f>C5+C10+C15</f>
+      <c r="C20" s="5">
+        <f>C5+C10+C16</f>
         <v>20500000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="5">
-        <f>C6+C11+C16</f>
-        <v>3500000</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5">
+        <f>C6+C11</f>
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C22" s="5">
         <v>2600000</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="26" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="43">
+        <f>C17+C13</f>
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="27">
-        <f>C19-C20-C21</f>
-        <v>14400000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="C24" s="27">
+        <f>C20-C21-C22-C23</f>
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Symphony/Others/Capital Mugdho Corporation 27.04.2022.xlsx
+++ b/2022/Symphony/Others/Capital Mugdho Corporation 27.04.2022.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>Mugdho Corporation</t>
   </si>
@@ -139,25 +140,34 @@
     <t xml:space="preserve">All additional </t>
   </si>
   <si>
-    <t>01.05.2022 Total Cash Handover</t>
-  </si>
-  <si>
     <t>SAMSUNG Additional</t>
   </si>
   <si>
     <t>02.05.2022 Boss Cash Handover</t>
   </si>
   <si>
-    <t>02.05.2022 Total Cash Handover</t>
-  </si>
-  <si>
     <t>All additional =</t>
   </si>
   <si>
     <t>09.05.2022 Jamuna Bank Deposit</t>
   </si>
   <si>
-    <t>Date: 09.05.2022</t>
+    <t>01.05.2022 BOSS Cash Handover</t>
+  </si>
+  <si>
+    <t>01.05.2022 Mithu Dri Cash Handover</t>
+  </si>
+  <si>
+    <t>10.05.2022 RTGS to NRB Bank  Boss Account</t>
+  </si>
+  <si>
+    <t>02.05.2022 Altab Cash Handover</t>
+  </si>
+  <si>
+    <t>Date: 10.05.2022</t>
+  </si>
+  <si>
+    <t>Total additional Taka need to given =</t>
   </si>
 </sst>
 </file>
@@ -443,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -488,6 +498,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -518,20 +539,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,16 +827,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C25"/>
+  <dimension ref="B1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="42.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="57.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" style="1" customWidth="1"/>
     <col min="4" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
@@ -830,23 +845,23 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31"/>
+      <c r="C2" s="36"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B3" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="33"/>
+      <c r="B3" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="38"/>
     </row>
     <row r="4" spans="2:3" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="29" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="17">
@@ -863,7 +878,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="17">
         <v>1050000</v>
@@ -879,11 +894,11 @@
       </c>
     </row>
     <row r="9" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="7">
@@ -900,7 +915,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7">
         <v>1550000</v>
@@ -908,7 +923,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7">
         <v>2200000</v>
@@ -924,12 +939,12 @@
       </c>
     </row>
     <row r="15" spans="2:3" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B16" s="40" t="s">
-        <v>20</v>
+      <c r="B16" s="30" t="s">
+        <v>19</v>
       </c>
       <c r="C16" s="19">
         <v>7000000</v>
@@ -937,73 +952,96 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" s="19">
         <v>200000</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="19">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="25">
-        <f>C16-C17</f>
-        <v>6800000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B20" s="41" t="s">
+      <c r="C19" s="25">
+        <f>C16-C17-C18</f>
+        <v>5800000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C21" s="44">
         <f>C5+C10+C16</f>
         <v>20500000</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="5">
-        <f>C6+C11</f>
-        <v>3500000</v>
-      </c>
-    </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="5">
-        <v>2600000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B23" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="43">
+      <c r="C25" s="32">
         <f>C17+C13</f>
         <v>2400000</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="27">
-        <f>C20-C21-C22-C23</f>
-        <v>12000000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="32">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="27">
+        <f>C21-C23-C24-C25-C26-C22</f>
+        <v>11000000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
@@ -1033,20 +1071,20 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31"/>
+      <c r="C2" s="36"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="38"/>
     </row>
     <row r="4" spans="2:3" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
@@ -1074,8 +1112,8 @@
       </c>
     </row>
     <row r="8" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
@@ -1103,8 +1141,8 @@
       </c>
     </row>
     <row r="12" spans="2:3" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
@@ -1132,8 +1170,8 @@
       </c>
     </row>
     <row r="16" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
@@ -1174,4 +1212,80 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="46">
+        <v>20500000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="B6" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="32">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="B7" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="32">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="27">
+        <f>C2-C4-C5-C6-C7-C3</f>
+        <v>11000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2022/Symphony/Others/Capital Mugdho Corporation 27.04.2022.xlsx
+++ b/2022/Symphony/Others/Capital Mugdho Corporation 27.04.2022.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Mugdho Corporation</t>
   </si>
@@ -143,9 +143,6 @@
     <t>SAMSUNG Additional</t>
   </si>
   <si>
-    <t>02.05.2022 Boss Cash Handover</t>
-  </si>
-  <si>
     <t>All additional =</t>
   </si>
   <si>
@@ -164,17 +161,26 @@
     <t>02.05.2022 Altab Cash Handover</t>
   </si>
   <si>
-    <t>Date: 10.05.2022</t>
-  </si>
-  <si>
     <t>Total additional Taka need to given =</t>
+  </si>
+  <si>
+    <t>13.05.2022 Kabir to A.M Tipu Boss Cash Handover</t>
+  </si>
+  <si>
+    <t>10.05.2022 RTGS to NRB Bank A.M Tipu Boss Account</t>
+  </si>
+  <si>
+    <t>01.05.2022 A.M Tipu BOSS Cash Handover</t>
+  </si>
+  <si>
+    <t>Date: 13.05.2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,8 +218,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,6 +322,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -479,21 +512,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -509,6 +537,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -539,14 +574,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -827,226 +894,255 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C28"/>
+  <dimension ref="B1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="57.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="1"/>
+    <col min="2" max="2" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="41" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B2" s="35" t="s">
+    <row r="1" spans="2:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B3" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="38"/>
-    </row>
-    <row r="4" spans="2:3" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="29" t="s">
+      <c r="C2" s="34"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="36"/>
+    </row>
+    <row r="4" spans="2:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="42">
         <v>3000000</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="42">
         <v>800000</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="17">
+        <v>25</v>
+      </c>
+      <c r="C7" s="42">
         <v>1050000</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B8" s="20" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="43">
         <f>C5-C6-C7</f>
         <v>1150000</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B10" s="28" t="s">
+    <row r="9" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="44">
         <v>10500000</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="7">
+        <v>29</v>
+      </c>
+      <c r="C11" s="44">
         <v>2700000</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="7">
+        <v>25</v>
+      </c>
+      <c r="C12" s="44">
         <v>1550000</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="7">
+        <v>21</v>
+      </c>
+      <c r="C13" s="44">
         <v>2200000</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B14" s="22" t="s">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="44">
+        <v>1300000</v>
+      </c>
+      <c r="F14" s="1">
+        <f>C8+C15+C21</f>
+        <v>9300000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="23">
-        <f>C10-C11-C12-C13</f>
-        <v>4050000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B16" s="30" t="s">
+      <c r="C15" s="45">
+        <f>C10-C11-C12-C13-C14</f>
+        <v>2750000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C17" s="46">
         <v>7000000</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="19">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="46">
         <v>200000</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="19">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="46">
         <v>1000000</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="24" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="46">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="25">
-        <f>C16-C17-C18</f>
-        <v>5800000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B21" s="43" t="s">
+      <c r="C21" s="47">
+        <f>C17-C18-C19-C20</f>
+        <v>5400000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="44">
-        <f>C5+C10+C16</f>
+      <c r="C23" s="48">
+        <f>C5+C10+C17</f>
         <v>20500000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="5">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="5">
-        <v>2000000</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="49">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="49">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="49">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="50">
+        <f>C18+C13</f>
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B28" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="50">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B29" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="54">
+        <v>1700000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="5">
-        <v>2600000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B25" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="32">
-        <f>C17+C13</f>
-        <v>2400000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B26" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="32">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="27">
-        <f>C21-C23-C24-C25-C26-C22</f>
-        <v>11000000</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="C30" s="51">
+        <f>C23-C25-C26-C27-C28-C24-C29</f>
+        <v>9300000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1071,20 +1167,20 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="34"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="36"/>
     </row>
     <row r="4" spans="2:3" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
@@ -1112,8 +1208,8 @@
       </c>
     </row>
     <row r="8" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
@@ -1141,8 +1237,8 @@
       </c>
     </row>
     <row r="12" spans="2:3" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
@@ -1170,8 +1266,8 @@
       </c>
     </row>
     <row r="16" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
@@ -1229,16 +1325,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="46">
+      <c r="C2" s="30">
         <v>20500000</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5">
         <v>1500000</v>
@@ -1246,7 +1342,7 @@
     </row>
     <row r="4" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5">
         <v>2000000</v>
@@ -1254,33 +1350,33 @@
     </row>
     <row r="5" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="5">
         <v>2600000</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="32">
+      <c r="B6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="27">
         <v>2400000</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B7" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="32">
+      <c r="B7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="27">
         <v>1000000</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="27">
+      <c r="B8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="22">
         <f>C2-C4-C5-C6-C7-C3</f>
         <v>11000000</v>
       </c>

--- a/2022/Symphony/Others/Capital Mugdho Corporation 27.04.2022.xlsx
+++ b/2022/Symphony/Others/Capital Mugdho Corporation 27.04.2022.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>Mugdho Corporation</t>
   </si>
@@ -173,7 +173,13 @@
     <t>01.05.2022 A.M Tipu BOSS Cash Handover</t>
   </si>
   <si>
-    <t>Date: 13.05.2022</t>
+    <t>16.05.2022 RTGS to NRB Bank A.M Tipu Boss Account</t>
+  </si>
+  <si>
+    <t>13.05.2022 Kabir to Altab Cash Handover Friday</t>
+  </si>
+  <si>
+    <t>Date: 16.05.2022</t>
   </si>
 </sst>
 </file>
@@ -544,6 +550,46 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -572,46 +618,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -894,17 +900,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F31"/>
+  <dimension ref="B1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" style="41" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="31" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
@@ -913,26 +919,26 @@
   <sheetData>
     <row r="1" spans="2:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34"/>
+      <c r="C2" s="48"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B3" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="36"/>
+      <c r="B3" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="50"/>
     </row>
     <row r="4" spans="2:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="32">
         <v>3000000</v>
       </c>
     </row>
@@ -940,7 +946,7 @@
       <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="32">
         <v>800000</v>
       </c>
     </row>
@@ -948,201 +954,233 @@
       <c r="B7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="32">
         <v>1050000</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="32">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="43">
-        <f>C5-C6-C7</f>
-        <v>1150000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="23" t="s">
+      <c r="C9" s="33">
+        <f>C5-C6-C7-C8</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C11" s="34">
         <v>10500000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="44">
-        <v>2700000</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="44">
-        <v>1550000</v>
+        <v>29</v>
+      </c>
+      <c r="C12" s="34">
+        <v>2700000</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="44">
-        <v>2200000</v>
+        <v>25</v>
+      </c>
+      <c r="C13" s="34">
+        <v>1550000</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="34">
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C15" s="34">
         <v>1300000</v>
       </c>
-      <c r="F14" s="1">
-        <f>C8+C15+C21</f>
-        <v>9300000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="19" t="s">
+      <c r="F15" s="1">
+        <f>C9+C17+C24</f>
+        <v>7200000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="34">
+        <v>950000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="45">
-        <f>C10-C11-C12-C13-C14</f>
-        <v>2750000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="25" t="s">
+      <c r="C17" s="35">
+        <f>C11-C12-C13-C14-C15-C16</f>
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="46">
+      <c r="C19" s="36">
         <v>7000000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="46">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="46">
-        <v>1000000</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="36">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="36">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C22" s="36">
         <v>400000</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B21" s="20" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="36">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="47">
-        <f>C17-C18-C19-C20</f>
-        <v>5400000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B23" s="28" t="s">
+      <c r="C24" s="37">
+        <f>C19-C20-C21-C22-C23</f>
+        <v>4400000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="48">
-        <f>C5+C10+C17</f>
+      <c r="C26" s="38">
+        <f>C5+C11+C19</f>
         <v>20500000</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B24" s="4" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="49">
+      <c r="C27" s="39">
         <v>1500000</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B25" s="4" t="s">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="49">
+      <c r="C28" s="39">
         <v>2000000</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B26" s="4" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="49">
+      <c r="C29" s="39">
         <v>2600000</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B27" s="26" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B30" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="50">
-        <f>C18+C13</f>
+      <c r="C30" s="40">
+        <f>C20+C14</f>
         <v>2400000</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" s="26" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B31" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="50">
+      <c r="C31" s="40">
         <v>1000000</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B29" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="54">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B32" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="40">
         <v>1700000</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="52" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="44">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="51">
-        <f>C23-C25-C26-C27-C28-C24-C29</f>
-        <v>9300000</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="C34" s="41">
+        <f>C26-C28-C29-C30-C31-C27-C32-C33</f>
+        <v>7200000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1167,20 +1205,20 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34"/>
+      <c r="C2" s="48"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="50"/>
     </row>
     <row r="4" spans="2:3" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
@@ -1208,8 +1246,8 @@
       </c>
     </row>
     <row r="8" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
@@ -1237,8 +1275,8 @@
       </c>
     </row>
     <row r="12" spans="2:3" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
@@ -1266,8 +1304,8 @@
       </c>
     </row>
     <row r="16" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">

--- a/2022/Symphony/Others/Capital Mugdho Corporation 27.04.2022.xlsx
+++ b/2022/Symphony/Others/Capital Mugdho Corporation 27.04.2022.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>Mugdho Corporation</t>
   </si>
@@ -179,7 +179,10 @@
     <t>13.05.2022 Kabir to Altab Cash Handover Friday</t>
   </si>
   <si>
-    <t>Date: 16.05.2022</t>
+    <t>17.05.2022 RTGS to NRB Bank A.M Tipu Boss Account</t>
+  </si>
+  <si>
+    <t>Date: 17.05.2022</t>
   </si>
 </sst>
 </file>
@@ -900,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F35"/>
+  <dimension ref="B1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -926,7 +929,7 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" s="49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="50"/>
     </row>
@@ -967,220 +970,244 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="32">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="33">
-        <f>C5-C6-C7-C8</f>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="23" t="s">
+      <c r="C10" s="33">
+        <f>C5-C6-C7-C8-C9</f>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C12" s="34">
         <v>10500000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="34">
-        <v>2700000</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C13" s="34">
-        <v>1550000</v>
+        <v>2700000</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C14" s="34">
-        <v>2200000</v>
+        <v>1550000</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C15" s="34">
-        <v>1300000</v>
-      </c>
-      <c r="F15" s="1">
-        <f>C9+C17+C24</f>
-        <v>7200000</v>
+        <v>2200000</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="34">
+        <v>1300000</v>
+      </c>
+      <c r="F16" s="1">
+        <f>C10+C19+C26</f>
+        <v>6200000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C17" s="34">
         <v>950000</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="19" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="34">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="35">
-        <f>C11-C12-C13-C14-C15-C16</f>
-        <v>1800000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="25" t="s">
+      <c r="C19" s="35">
+        <f>C12-C13-C14-C15-C16-C17-C18</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C21" s="36">
         <v>7000000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B20" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="36">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B21" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="36">
-        <v>1000000</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C22" s="36">
-        <v>400000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" s="36">
         <v>1000000</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="36">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="36">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="37">
-        <f>C19-C20-C21-C22-C23</f>
+      <c r="C26" s="37">
+        <f>C21-C22-C23-C24-C25</f>
         <v>4400000</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B26" s="28" t="s">
+    <row r="27" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B28" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="38">
-        <f>C5+C11+C19</f>
+      <c r="C28" s="38">
+        <f>C5+C12+C21</f>
         <v>20500000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="39">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="39">
-        <v>2000000</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="39">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="39">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="39">
+      <c r="C31" s="39">
         <v>2600000</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B30" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="40">
-        <f>C20+C14</f>
-        <v>2400000</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B31" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="40">
-        <v>1000000</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B32" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="40">
+        <f>C22+C15</f>
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="40">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="40">
+      <c r="C34" s="40">
         <v>1700000</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B33" s="43" t="s">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="44">
+      <c r="C35" s="40">
         <v>2100000</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="42" t="s">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B36" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="44">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="41">
-        <f>C26-C28-C29-C30-C31-C27-C32-C33</f>
-        <v>7200000</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="C37" s="41">
+        <f>C28-C30-C31-C32-C33-C29-C34-C35-C36</f>
+        <v>6200000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Symphony/Others/Capital Mugdho Corporation 27.04.2022.xlsx
+++ b/2022/Symphony/Others/Capital Mugdho Corporation 27.04.2022.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>Mugdho Corporation</t>
   </si>
@@ -182,7 +182,10 @@
     <t>17.05.2022 RTGS to NRB Bank A.M Tipu Boss Account</t>
   </si>
   <si>
-    <t>Date: 17.05.2022</t>
+    <t>18.05.2022 RTGS to NRB Bank A.M Tipu Boss Account</t>
+  </si>
+  <si>
+    <t>Date: 18.05.2022</t>
   </si>
 </sst>
 </file>
@@ -903,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F38"/>
+  <dimension ref="B1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -929,7 +932,7 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" s="49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="50"/>
     </row>
@@ -1030,8 +1033,8 @@
         <v>1300000</v>
       </c>
       <c r="F16" s="1">
-        <f>C10+C19+C26</f>
-        <v>6200000</v>
+        <f>C10+C19+C27</f>
+        <v>5200000</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
@@ -1104,105 +1107,121 @@
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="36">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="37">
-        <f>C21-C22-C23-C24-C25</f>
-        <v>4400000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="45"/>
-      <c r="C27" s="46"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" s="28" t="s">
+      <c r="C27" s="37">
+        <f>C21-C22-C23-C24-C25-C26</f>
+        <v>3400000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B29" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C29" s="38">
         <f>C5+C12+C21</f>
         <v>20500000</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B29" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="39">
-        <v>1500000</v>
-      </c>
-    </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C30" s="39">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="39">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="39">
+      <c r="C32" s="39">
         <v>2600000</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B32" s="26" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="40">
+      <c r="C33" s="40">
         <f>C22+C15</f>
         <v>2400000</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B33" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="40">
-        <v>1000000</v>
-      </c>
-    </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C34" s="40">
-        <v>1700000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="40">
+        <v>1700000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B36" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="40">
+      <c r="C36" s="40">
         <v>2100000</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B36" s="43" t="s">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B37" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="44">
+      <c r="C37" s="40">
         <v>1000000</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="42" t="s">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B38" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="44">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="41">
-        <f>C28-C30-C31-C32-C33-C29-C34-C35-C36</f>
-        <v>6200000</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="C39" s="41">
+        <f>C29-C31-C32-C33-C34-C30-C35-C36-C37-C38</f>
+        <v>5200000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>

--- a/2022/Symphony/Others/Capital Mugdho Corporation 27.04.2022.xlsx
+++ b/2022/Symphony/Others/Capital Mugdho Corporation 27.04.2022.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>Mugdho Corporation</t>
   </si>
@@ -185,7 +185,16 @@
     <t>18.05.2022 RTGS to NRB Bank A.M Tipu Boss Account</t>
   </si>
   <si>
-    <t>Date: 18.05.2022</t>
+    <t>19.05.2022  Cash Handover to A.M Tipu BOSS</t>
+  </si>
+  <si>
+    <t>19.05.2022 RTGS to NRB Bank A.M Tipu Boss Account</t>
+  </si>
+  <si>
+    <t>19.05.2022 Cash Handover to A.M Tipu Boss at Night</t>
+  </si>
+  <si>
+    <t>Date: 19.05.2022</t>
   </si>
 </sst>
 </file>
@@ -906,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F40"/>
+  <dimension ref="B1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -923,24 +932,24 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" s="47" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="48"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="49" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C3" s="50"/>
     </row>
-    <row r="4" spans="2:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="51"/>
       <c r="C4" s="52"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B5" s="24" t="s">
         <v>12</v>
       </c>
@@ -948,7 +957,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
@@ -956,7 +965,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B7" s="16" t="s">
         <v>25</v>
       </c>
@@ -964,7 +973,7 @@
         <v>1050000</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B8" s="16" t="s">
         <v>30</v>
       </c>
@@ -972,7 +981,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B9" s="16" t="s">
         <v>32</v>
       </c>
@@ -980,253 +989,293 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="18" t="s">
+    <row r="10" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="32">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="33">
-        <f>C5-C6-C7-C8-C9</f>
+      <c r="C11" s="33">
+        <f>C5-C6-C7-C8-C9-C10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+    </row>
+    <row r="13" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="34">
+        <v>10500000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="34">
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="34">
+        <v>1550000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="34">
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="34">
+        <v>1300000</v>
+      </c>
+      <c r="F17" s="1">
+        <f>C11+C21+C30</f>
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="34">
+        <v>950000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="34">
         <v>800000</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="34">
-        <v>10500000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="34">
-        <v>2700000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="34">
-        <v>1550000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="6" t="s">
+    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="34">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="35">
+        <f>C13-C14-C15-C16-C17-C18-C19-C20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+    </row>
+    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="36">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="34">
-        <v>2200000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="34">
-        <v>1300000</v>
-      </c>
-      <c r="F16" s="1">
-        <f>C10+C19+C27</f>
-        <v>5200000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="34">
-        <v>950000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="34">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="35">
-        <f>C12-C13-C14-C15-C16-C17-C18</f>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B21" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="36">
-        <v>7000000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B22" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="36">
+      <c r="C24" s="36">
         <v>200000</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B23" s="17" t="s">
+    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="17" t="s">
         <v>28</v>
-      </c>
-      <c r="C23" s="36">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B24" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="36">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B25" s="17" t="s">
-        <v>30</v>
       </c>
       <c r="C25" s="36">
         <v>1000000</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B26" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="36">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="36">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C28" s="36">
         <v>1000000</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B27" s="20" t="s">
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="36">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="37">
-        <f>C21-C22-C23-C24-C25-C26</f>
-        <v>3400000</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="45"/>
-      <c r="C28" s="46"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B29" s="28" t="s">
+      <c r="C30" s="37">
+        <f>C23-C24-C25-C26-C27-C28-C29</f>
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B32" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="38">
-        <f>C5+C12+C21</f>
+      <c r="C32" s="38">
+        <f>C5+C13+C23</f>
         <v>20500000</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B30" s="4" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="39">
+      <c r="C33" s="39">
         <v>1500000</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B31" s="4" t="s">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="39">
+      <c r="C34" s="39">
         <v>2000000</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B32" s="4" t="s">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="39">
+      <c r="C35" s="39">
         <v>2600000</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B33" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="40">
-        <f>C22+C15</f>
-        <v>2400000</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B34" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="40">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B35" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="40">
-        <v>1700000</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="26" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C36" s="40">
-        <v>2100000</v>
+        <f>C24+C16</f>
+        <v>2400000</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37" s="26" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C37" s="40">
         <v>1000000</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="40">
+        <v>1700000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B39" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="40">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B40" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="40">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B41" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="44">
+      <c r="C41" s="40">
         <v>1000000</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="42" t="s">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B42" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="44">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B43" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="44">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="41">
-        <f>C29-C31-C32-C33-C34-C30-C35-C36-C37-C38</f>
-        <v>5200000</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="C44" s="41">
+        <f>C32-C34-C35-C36-C37-C33-C38-C39-C40-C41-C42-C43</f>
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Symphony/Others/Capital Mugdho Corporation 27.04.2022.xlsx
+++ b/2022/Symphony/Others/Capital Mugdho Corporation 27.04.2022.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>Mugdho Corporation</t>
   </si>
@@ -194,7 +194,10 @@
     <t>19.05.2022 Cash Handover to A.M Tipu Boss at Night</t>
   </si>
   <si>
-    <t>Date: 19.05.2022</t>
+    <t>23.05.2022 RTGS to NRB Bank A.M Tipu Boss Account</t>
+  </si>
+  <si>
+    <t>Date: 23.05.2022</t>
   </si>
 </sst>
 </file>
@@ -915,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F45"/>
+  <dimension ref="B1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -941,7 +944,7 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="50"/>
     </row>
@@ -1050,8 +1053,8 @@
         <v>1300000</v>
       </c>
       <c r="F17" s="1">
-        <f>C11+C21+C30</f>
-        <v>3000000</v>
+        <f>C11+C21+C31</f>
+        <v>2000000</v>
       </c>
     </row>
     <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1148,129 +1151,145 @@
       </c>
     </row>
     <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="36">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="37">
-        <f>C23-C24-C25-C26-C27-C28-C29</f>
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="45"/>
-      <c r="C31" s="46"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="28" t="s">
+      <c r="C31" s="37">
+        <f>C23-C24-C25-C26-C27-C28-C29-C30</f>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="38">
+      <c r="C33" s="38">
         <f>C5+C13+C23</f>
         <v>20500000</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="39">
-        <v>1500000</v>
-      </c>
-    </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C34" s="39">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="39">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B36" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="39">
+      <c r="C36" s="39">
         <v>2600000</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B36" s="26" t="s">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B37" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="40">
+      <c r="C37" s="40">
         <f>C24+C16</f>
         <v>2400000</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B37" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="40">
-        <v>1000000</v>
-      </c>
-    </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38" s="26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C38" s="40">
-        <v>1700000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39" s="26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C39" s="40">
-        <v>2100000</v>
+        <v>1700000</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40" s="26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C40" s="40">
-        <v>1000000</v>
+        <v>2100000</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41" s="40">
         <v>1000000</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="40">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B43" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="44">
+      <c r="C43" s="40">
         <v>1200000</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="43" t="s">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B44" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="44">
+      <c r="C44" s="40">
         <v>1000000</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="42" t="s">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B45" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="44">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="41">
-        <f>C32-C34-C35-C36-C37-C33-C38-C39-C40-C41-C42-C43</f>
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="C46" s="41">
+        <f>C33-C35-C36-C37-C38-C34-C39-C40-C41-C42-C43-C44-C45</f>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
